--- a/medicine/Psychotrope/Calatayud_(DO)/Calatayud_(DO).xlsx
+++ b/medicine/Psychotrope/Calatayud_(DO)/Calatayud_(DO).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Calatayud est un vin d'Espagne à d'appellation d'origine protégée. La zone de production se trouve à l'ouest de la province de Saragosse, formée par 46 municipalités dont le chef lieu est la ville de Calatayud où se trouve le conseil régulateur du vin.
@@ -512,13 +524,13 @@
           <t>L’environnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une région arrosée par les rivières Jalón, Jiloca, Piedra, Mesa, Ribota et le Manubles, qui s'étend sur 8 000 ha. L'AOC compte treize caves inscrites.
 L'altitude moyenne des vignobles se situe entre 550 et 800 mètres sur le niveau de la mer, les sols sont calcaires.
 Le climat est continental avec une pluviométrie d'entre 300 et 400 mm. annuels.
-Histoire
-La première référence écrite sur les vins de Calatayud date du Ier siècle.
 </t>
         </is>
       </c>
@@ -544,13 +556,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cépages</t>
+          <t>L’environnement</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rouges:* Cabernet Sauvignon, Merlot, Syrah, Chardonnay, Tempranillo et Grenache.
-Blancs: Macabeu, Malvasía, Grenache blanc, Chardonnay et Moscatel.</t>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première référence écrite sur les vins de Calatayud date du Ier siècle.
+</t>
         </is>
       </c>
     </row>
@@ -575,10 +593,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Cépages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rouges:* Cabernet Sauvignon, Merlot, Syrah, Chardonnay, Tempranillo et Grenache.
+Blancs: Macabeu, Malvasía, Grenache blanc, Chardonnay et Moscatel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calatayud_(DO)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calatayud_(DO)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Millésimes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1990 Très Bon
 1991 Bon
@@ -598,31 +651,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Calatayud_(DO)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Calatayud_(DO)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Caves</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bodegas San Alejandro
 Bodegas Virgen de la Sierra
